--- a/teaching/traditional_assets/database/data/british_virgin_islands/british_virgin_islands_steel.xlsx
+++ b/teaching/traditional_assets/database/data/british_virgin_islands/british_virgin_islands_steel.xlsx
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="K2">
-        <v>-1.63</v>
+        <v>-2.06</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -615,31 +615,31 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1.34</v>
+        <v>0.364</v>
       </c>
       <c r="V2">
-        <v>0.03976261127596439</v>
+        <v>0.01016759776536313</v>
       </c>
       <c r="W2">
-        <v>-0.04034653465346535</v>
+        <v>-0.05309278350515464</v>
       </c>
       <c r="X2">
-        <v>0.1065528908396069</v>
+        <v>0.0842299367121281</v>
       </c>
       <c r="Y2">
-        <v>-0.1468994254930722</v>
+        <v>-0.1373227202172828</v>
       </c>
       <c r="Z2">
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>-0.02723631508678238</v>
+        <v>-0.03844100373731981</v>
       </c>
       <c r="AB2">
-        <v>0.1065528908396069</v>
+        <v>0.0842299367121281</v>
       </c>
       <c r="AC2">
-        <v>-0.1337892059263893</v>
+        <v>-0.1226709404494479</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -651,7 +651,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>-1.34</v>
+        <v>-0.364</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -660,19 +660,19 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>-0.04140914709517924</v>
+        <v>-0.01027203973360424</v>
       </c>
       <c r="AK2">
-        <v>-0.03577148958889483</v>
+        <v>-0.009620467279839305</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
-        <v>-0.01</v>
+        <v>-0.004</v>
       </c>
       <c r="AQ2">
-        <v>102</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="K3">
-        <v>-1.63</v>
+        <v>-2.06</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -716,31 +716,31 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1.34</v>
+        <v>0.364</v>
       </c>
       <c r="V3">
-        <v>0.03976261127596439</v>
+        <v>0.01016759776536313</v>
       </c>
       <c r="W3">
-        <v>-0.04034653465346535</v>
+        <v>-0.05309278350515464</v>
       </c>
       <c r="X3">
-        <v>0.1065528908396069</v>
+        <v>0.0842299367121281</v>
       </c>
       <c r="Y3">
-        <v>-0.1468994254930722</v>
+        <v>-0.1373227202172828</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>-0.02723631508678238</v>
+        <v>-0.03844100373731981</v>
       </c>
       <c r="AB3">
-        <v>0.1065528908396069</v>
+        <v>0.0842299367121281</v>
       </c>
       <c r="AC3">
-        <v>-0.1337892059263893</v>
+        <v>-0.1226709404494479</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>-1.34</v>
+        <v>-0.364</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -761,19 +761,19 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0.04140914709517924</v>
+        <v>-0.01027203973360424</v>
       </c>
       <c r="AK3">
-        <v>-0.03577148958889483</v>
+        <v>-0.009620467279839305</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
-        <v>-0.01</v>
+        <v>-0.004</v>
       </c>
       <c r="AQ3">
-        <v>102</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
